--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>SideBar</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>http://www.w3schools.com/bootstrap/bootstrap_modal.asp</t>
+  </si>
+  <si>
+    <t>http://www.bootply.com/yyP5xsZcrg</t>
+  </si>
+  <si>
+    <t>Bootstrap Footer</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/10099422/flushing-footer-to-bottom-of-the-page-twitter-bootstrap</t>
+  </si>
+  <si>
+    <t>Search Box Typeahead</t>
   </si>
 </sst>
 </file>
@@ -387,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -437,6 +449,22 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sadiq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sadiq\Documents\GitHub\MiniKart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SideBar</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Search Box Typeahead</t>
+  </si>
+  <si>
+    <t>Xml Configs</t>
+  </si>
+  <si>
+    <t>http://www.codejava.net/frameworks/spring/spring-4-and-hibernate-4-integration-tutorial-part-1-xml-configuration</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,6 +473,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SideBar</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>http://www.codejava.net/frameworks/spring/spring-4-and-hibernate-4-integration-tutorial-part-1-xml-configuration</t>
+  </si>
+  <si>
+    <t>Color Pallete</t>
+  </si>
+  <si>
+    <t>http://www.color-hex.com/color-palette/24375</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,6 +487,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SideBar</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>http://www.color-hex.com/color-palette/24375</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>http://www.michaelbromley.co.uk/blog/108/paginate-almost-anything-in-angularjs</t>
+  </si>
+  <si>
+    <t>sequence generation type</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/20603638/what-is-the-use-of-annotations-id-and-generatedvaluestrategy-generationtype</t>
   </si>
 </sst>
 </file>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,6 +507,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>SideBar</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>http://stackoverflow.com/questions/20603638/what-is-the-use-of-annotations-id-and-generatedvaluestrategy-generationtype</t>
+  </si>
+  <si>
+    <t>Scroll Nav</t>
+  </si>
+  <si>
+    <t>https://startbootstrap.com/template-overviews/scrolling-nav/</t>
+  </si>
+  <si>
+    <t>http://howtodoinjava.com/spring/spring-core/send-email-with-spring-javamailsenderimpl-example/</t>
+  </si>
+  <si>
+    <t>Mail Javax Spring</t>
   </si>
 </sst>
 </file>
@@ -423,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,6 +535,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>SideBar</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Mail Javax Spring</t>
+  </si>
+  <si>
+    <t>Spring Taglibs</t>
+  </si>
+  <si>
+    <t>http://docs.spring.io/spring-security/site/docs/3.0.x/reference/taglibs.html</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,6 +557,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>SideBar</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>http://docs.spring.io/spring-security/site/docs/3.0.x/reference/taglibs.html</t>
+  </si>
+  <si>
+    <t>Sort/Pagination/Search</t>
+  </si>
+  <si>
+    <t>https://code.ciphertrick.com/2015/06/01/search-sort-and-pagination-ngrepeat-angularjs/</t>
+  </si>
+  <si>
+    <t>Display Image After Selecting</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/12368910/html-display-image-after-selecting-filename</t>
+  </si>
+  <si>
+    <t>hibernate validation</t>
+  </si>
+  <si>
+    <t>http://www.codejava.net/frameworks/spring/spring-mvc-form-validation-example-with-bean-validation-api</t>
   </si>
 </sst>
 </file>
@@ -152,12 +170,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -441,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,10 +586,35 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>SideBar</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>http://www.codejava.net/frameworks/spring/spring-mvc-form-validation-example-with-bean-validation-api</t>
+  </si>
+  <si>
+    <t>DropDown for Logged In</t>
+  </si>
+  <si>
+    <t>http://bootsnipp.com/snippets/yar1</t>
   </si>
 </sst>
 </file>
@@ -462,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -608,6 +614,14 @@
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>SideBar</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>http://bootsnipp.com/snippets/yar1</t>
+  </si>
+  <si>
+    <t>http://cssglobe.com/easiest-tooltip-and-image-preview-using-jquery/</t>
+  </si>
+  <si>
+    <t>Image Tool Tips</t>
+  </si>
+  <si>
+    <t>ControllerAdvice</t>
+  </si>
+  <si>
+    <t>http://www.concretepage.com/spring/spring-mvc/spring-mvc-controlleradvice-annotation-example</t>
+  </si>
+  <si>
+    <t>Model Attribute Url Fix</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/25256131/how-to-make-spring-not-to-add-all-model-attributes-to-a-redirect-url</t>
   </si>
 </sst>
 </file>
@@ -468,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,6 +642,30 @@
         <v>35</v>
       </c>
     </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>SideBar</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>http://stackoverflow.com/questions/25256131/how-to-make-spring-not-to-add-all-model-attributes-to-a-redirect-url</t>
+  </si>
+  <si>
+    <t>Upload Image Perfectly</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/8885201/uploaded-image-only-available-after-refreshing-the-page</t>
+  </si>
+  <si>
+    <t>Google Map</t>
+  </si>
+  <si>
+    <t>Open google maps , select location , click share or embed , select embed, copy past code</t>
   </si>
 </sst>
 </file>
@@ -486,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,6 +678,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>SideBar</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Open google maps , select location , click share or embed , select embed, copy past code</t>
+  </si>
+  <si>
+    <t>http://www.w3schools.com/js/js_cookies.asp</t>
+  </si>
+  <si>
+    <t>Cookie Javascript</t>
   </si>
 </sst>
 </file>
@@ -498,16 +504,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -692,6 +698,14 @@
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>SideBar</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>Cookie Javascript</t>
+  </si>
+  <si>
+    <t>Error Code 404</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/21061638/spring-mvc-how-to-return-custom-404-errorpages</t>
+  </si>
+  <si>
+    <t>Unique in angularjs</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/32843016/ng-repeat-how-to-get-the-unique-values</t>
   </si>
 </sst>
 </file>
@@ -504,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,6 +720,22 @@
         <v>46</v>
       </c>
     </row>
+    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>

--- a/Resource Links.xlsx
+++ b/Resource Links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>SideBar</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>http://stackoverflow.com/questions/32843016/ng-repeat-how-to-get-the-unique-values</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>https://daneden.github.io/animate.css/</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,6 +742,14 @@
         <v>51</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
